--- a/document/项目安排计划/项目安排进度计划.xlsx
+++ b/document/项目安排计划/项目安排进度计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/项目安排计划/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E767C8B0-591F-F541-95B4-089F671A89DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFFE491-CEEE-184C-B5FB-D16EE78F947D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
   <si>
     <t>基于区块链的安全数据共享系统工作计划概况</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -388,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.09.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阶段文档：系统测试计划、系统测试报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,10 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.09.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目经理：曹俊燚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -505,6 +497,10 @@
   </si>
   <si>
     <t>阶段文档：概要设计说明书、对接方案、接口方案、测试案例、前端开发工作计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +597,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,6 +616,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -893,7 +895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -921,9 +923,87 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -932,87 +1012,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1369,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7888914A-0887-C84A-ABDA-E01C184CA597}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1385,17 +1393,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" customHeight="1" thickBot="1">
-      <c r="A1" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
+      <c r="A1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -1420,86 +1428,86 @@
         <v>14</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="41" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="41" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="38"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:9" ht="41" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="38"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" thickBot="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="39"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="17" thickBot="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" ht="51">
       <c r="A8" s="13" t="s">
@@ -1511,118 +1519,118 @@
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="36" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="68">
-      <c r="A9" s="14"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="17"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="17">
-      <c r="A10" s="14"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17">
-      <c r="A11" s="14"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="C11" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="136">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>93</v>
+      <c r="G13" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>25</v>
@@ -1632,56 +1640,56 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="17" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="34">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="68">
-      <c r="A16" s="9"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -1689,74 +1697,74 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="102">
-      <c r="A18" s="9"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17">
-      <c r="A19" s="9"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="C19" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="7" t="s">
         <v>66</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="34">
-      <c r="A20" s="9"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="7" t="s">
         <v>25</v>
       </c>
@@ -1765,17 +1773,17 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="A21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="34">
       <c r="A22" s="7" t="s">
@@ -1787,19 +1795,19 @@
       <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="7" t="s">
@@ -1813,178 +1821,179 @@
       <c r="C23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="9" t="s">
+      <c r="B25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16" customHeight="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="B30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E30" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="14"/>
+      <c r="B31" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="9"/>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="I31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G13:G20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A20"/>
     <mergeCell ref="D13:D20"/>
     <mergeCell ref="E13:E20"/>
     <mergeCell ref="I30:I31"/>
@@ -2001,22 +2010,21 @@
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G13:G20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/项目安排计划/项目安排进度计划.xlsx
+++ b/document/项目安排计划/项目安排进度计划.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/项目安排计划/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFFE491-CEEE-184C-B5FB-D16EE78F947D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9802B87-C6F3-4041-8451-D0DFFBF6B464}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="目标" sheetId="1" r:id="rId1"/>
     <sheet name="工作计划" sheetId="2" r:id="rId2"/>
+    <sheet name="进度甘特表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="138">
   <si>
     <t>基于区块链的安全数据共享系统工作计划概况</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -503,12 +504,144 @@
     <t>待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Mon.</t>
+  </si>
+  <si>
+    <t>Tue.</t>
+  </si>
+  <si>
+    <t>Wedn.</t>
+  </si>
+  <si>
+    <t>Thurs.</t>
+  </si>
+  <si>
+    <t>Fri.</t>
+  </si>
+  <si>
+    <t>Sat.</t>
+  </si>
+  <si>
+    <t>Sun.</t>
+  </si>
+  <si>
+    <t>项目立项</t>
+  </si>
+  <si>
+    <t>项目启动</t>
+  </si>
+  <si>
+    <t>曹俊燚</t>
+  </si>
+  <si>
+    <t>卢茜君</t>
+  </si>
+  <si>
+    <t>金晨</t>
+  </si>
+  <si>
+    <t>侯添久</t>
+  </si>
+  <si>
+    <t>赵梓清</t>
+  </si>
+  <si>
+    <t>阶段文档：无</t>
+  </si>
+  <si>
+    <t>项目策划</t>
+  </si>
+  <si>
+    <t>用户管理模块需求调研分析</t>
+  </si>
+  <si>
+    <t>文件存储模块需求调研分析</t>
+  </si>
+  <si>
+    <t>需求分析评审</t>
+  </si>
+  <si>
+    <t>侯添久待定</t>
+  </si>
+  <si>
+    <t>界面评审</t>
+  </si>
+  <si>
+    <t>赵梓清待定</t>
+  </si>
+  <si>
+    <t>阶段文档：需求规格说明书、界面UI设计图</t>
+  </si>
+  <si>
+    <t>系统开发</t>
+  </si>
+  <si>
+    <t>概要设计和评审</t>
+  </si>
+  <si>
+    <t>用户管理模块、文件上传、
+文件下载对接方案及接口制定</t>
+  </si>
+  <si>
+    <t>用户管理模块、文件存储模块、
+文件上传服务、文件下载服务
+功能编码</t>
+  </si>
+  <si>
+    <t>系统实现汇报</t>
+  </si>
+  <si>
+    <t>测试案例编写</t>
+  </si>
+  <si>
+    <t>阶段文档：概要设计说明书、对接方案、接口方案、测试案例、前端开发工作计划</t>
+  </si>
+  <si>
+    <t>测试阶段</t>
+  </si>
+  <si>
+    <t>环境准备</t>
+  </si>
+  <si>
+    <t>集成测试、接口测试</t>
+  </si>
+  <si>
+    <t>阶段文档：系统测试计划、系统测试报告</t>
+  </si>
+  <si>
+    <t>系统部署</t>
+  </si>
+  <si>
+    <t>系统界面展示汇报</t>
+  </si>
+  <si>
+    <t>准备生产环境</t>
+  </si>
+  <si>
+    <t>系统安装部署</t>
+  </si>
+  <si>
+    <t>阶段文档：系统用户手册</t>
+  </si>
+  <si>
+    <t>项目上线</t>
+  </si>
+  <si>
+    <t>系统上线试运行</t>
+  </si>
+  <si>
+    <t>最终答辩</t>
+  </si>
+  <si>
+    <t>曹俊燚待定</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -596,8 +729,41 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,8 +788,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFFB8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -889,13 +1103,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,8 +1190,29 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -936,10 +1224,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1004,23 +1289,158 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1377,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7888914A-0887-C84A-ABDA-E01C184CA597}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" workbookViewId="0">
+    <sheetView zoomScale="57" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1393,17 +1813,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" customHeight="1" thickBot="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -1435,82 +1855,82 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="41" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="39" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="41" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="34"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" ht="41" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="34"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" thickBot="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="35"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="17" thickBot="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9" ht="51">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1519,56 +1939,56 @@
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="68">
-      <c r="A9" s="39"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="17">
-      <c r="A10" s="39"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="7" t="s">
         <v>85</v>
       </c>
@@ -1577,19 +1997,19 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="17">
-      <c r="A11" s="39"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="7" t="s">
         <v>86</v>
       </c>
@@ -1598,38 +2018,38 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="136">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="17" t="s">
         <v>91</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -1640,17 +2060,17 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="41" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="10" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="7" t="s">
         <v>87</v>
       </c>
@@ -1659,15 +2079,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="34">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="41" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="14"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="7" t="s">
         <v>88</v>
       </c>
@@ -1676,20 +2096,20 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="68">
-      <c r="A16" s="14"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -1697,53 +2117,53 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="14"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="102">
-      <c r="A18" s="14"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17">
-      <c r="A19" s="14"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="7" t="s">
         <v>66</v>
       </c>
@@ -1752,19 +2172,19 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="34">
-      <c r="A20" s="14"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="7" t="s">
         <v>25</v>
       </c>
@@ -1773,17 +2193,17 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="34">
       <c r="A22" s="7" t="s">
@@ -1795,19 +2215,19 @@
       <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="11" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="7" t="s">
@@ -1821,32 +2241,32 @@
       <c r="C23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -1855,17 +2275,17 @@
       <c r="C25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14" t="s">
+      <c r="G25" s="11"/>
+      <c r="H25" s="11" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="7" t="s">
@@ -1873,65 +2293,65 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="16" customHeight="1">
-      <c r="A26" s="14"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="10" t="s">
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1940,44 +2360,75 @@
       <c r="C30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="14"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="14"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="14"/>
+      <c r="I31" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="H25:H28"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:E23"/>
@@ -1994,37 +2445,591 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A13:A20"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E050A6-F283-B644-B490-2BE7379117EF}">
+  <dimension ref="A1:W40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" style="42" customWidth="1"/>
+    <col min="3" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="17" thickBot="1">
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="18" thickTop="1" thickBot="1">
+      <c r="A2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="45">
+        <v>43703</v>
+      </c>
+      <c r="D2" s="45">
+        <v>43704</v>
+      </c>
+      <c r="E2" s="45">
+        <v>43705</v>
+      </c>
+      <c r="F2" s="45">
+        <v>43706</v>
+      </c>
+      <c r="G2" s="45">
+        <v>43707</v>
+      </c>
+      <c r="H2" s="45">
+        <v>43708</v>
+      </c>
+      <c r="I2" s="46">
+        <v>43709</v>
+      </c>
+      <c r="J2" s="45">
+        <v>43710</v>
+      </c>
+      <c r="K2" s="45">
+        <v>43711</v>
+      </c>
+      <c r="L2" s="45">
+        <v>43712</v>
+      </c>
+      <c r="M2" s="45">
+        <v>43713</v>
+      </c>
+      <c r="N2" s="45">
+        <v>43714</v>
+      </c>
+      <c r="O2" s="45">
+        <v>43715</v>
+      </c>
+      <c r="P2" s="46">
+        <v>43716</v>
+      </c>
+      <c r="Q2" s="45">
+        <v>43717</v>
+      </c>
+      <c r="R2" s="45">
+        <v>43718</v>
+      </c>
+      <c r="S2" s="45">
+        <v>43719</v>
+      </c>
+      <c r="T2" s="45">
+        <v>43720</v>
+      </c>
+      <c r="U2" s="45">
+        <v>43721</v>
+      </c>
+      <c r="V2" s="45"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="I3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="V3" s="49"/>
+      <c r="W3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="I4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="V4" s="52"/>
+      <c r="W4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="53"/>
+      <c r="I5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="V5" s="53"/>
+      <c r="W5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="54"/>
+      <c r="I6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="V6" s="54"/>
+      <c r="W6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="17" thickBot="1">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="I7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="V7" s="57"/>
+      <c r="W7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="60" customFormat="1" ht="17" thickBot="1">
+      <c r="A8" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="59"/>
+      <c r="I8" s="61"/>
+      <c r="P8" s="61"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="I9" s="43"/>
+      <c r="P9" s="43"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="I10" s="43"/>
+      <c r="P10" s="43"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="I11" s="43"/>
+      <c r="P11" s="43"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="64"/>
+      <c r="B12" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="I12" s="43"/>
+      <c r="P12" s="43"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="I13" s="43"/>
+      <c r="P13" s="43"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="I14" s="43"/>
+      <c r="P14" s="43"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="I15" s="43"/>
+      <c r="P15" s="43"/>
+    </row>
+    <row r="16" spans="1:23" s="68" customFormat="1">
+      <c r="A16" s="66"/>
+      <c r="B16" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="69"/>
+      <c r="P16" s="69"/>
+    </row>
+    <row r="17" spans="1:17" s="72" customFormat="1" ht="17" thickBot="1">
+      <c r="A17" s="70"/>
+      <c r="B17" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="73"/>
+      <c r="P17" s="73"/>
+    </row>
+    <row r="18" spans="1:17" s="60" customFormat="1" ht="17" thickBot="1">
+      <c r="A18" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="74"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="I19" s="43"/>
+      <c r="P19" s="43"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="I20" s="43"/>
+      <c r="P20" s="43"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="64"/>
+      <c r="B21" s="65"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="I21" s="43"/>
+      <c r="P21" s="43"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="64"/>
+      <c r="B22" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="54"/>
+      <c r="I22" s="43"/>
+      <c r="P22" s="43"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="64"/>
+      <c r="B23" s="75"/>
+      <c r="F23" s="53"/>
+      <c r="I23" s="43"/>
+      <c r="P23" s="43"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="64"/>
+      <c r="B24" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="P24" s="43"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="64"/>
+      <c r="B25" s="75"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="P25" s="43"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="64"/>
+      <c r="B26" s="75"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="P26" s="43"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="64"/>
+      <c r="B27" s="75"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="P27" s="43"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="64"/>
+      <c r="B28" s="75"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="P28" s="43"/>
+    </row>
+    <row r="29" spans="1:17" s="68" customFormat="1" ht="17">
+      <c r="A29" s="66"/>
+      <c r="B29" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="69"/>
+      <c r="P29" s="69"/>
+    </row>
+    <row r="30" spans="1:17" ht="17" thickBot="1">
+      <c r="A30" s="82"/>
+      <c r="B30" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="79"/>
+      <c r="P30" s="43"/>
+    </row>
+    <row r="31" spans="1:17" s="60" customFormat="1" ht="17" thickBot="1">
+      <c r="A31" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="84"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="43"/>
+      <c r="J32" s="52"/>
+      <c r="P32" s="43"/>
+    </row>
+    <row r="33" spans="1:21" ht="17" thickBot="1">
+      <c r="A33" s="82"/>
+      <c r="B33" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="43"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="43"/>
+    </row>
+    <row r="34" spans="1:21" s="60" customFormat="1" ht="17" thickBot="1">
+      <c r="A34" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="84"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="43"/>
+      <c r="P35" s="86"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="64"/>
+      <c r="B36" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="43"/>
+      <c r="P36" s="77"/>
+    </row>
+    <row r="37" spans="1:21" ht="17" thickBot="1">
+      <c r="A37" s="82"/>
+      <c r="B37" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="43"/>
+      <c r="P37" s="77"/>
+    </row>
+    <row r="38" spans="1:21" s="60" customFormat="1" ht="17" thickBot="1">
+      <c r="A38" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="84"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+    </row>
+    <row r="40" spans="1:21" s="91" customFormat="1" ht="17" thickBot="1">
+      <c r="A40" s="89"/>
+      <c r="B40" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="I40" s="92"/>
+      <c r="P40" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/项目安排计划/项目安排进度计划.xlsx
+++ b/document/项目安排计划/项目安排进度计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/项目安排计划/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9802B87-C6F3-4041-8451-D0DFFBF6B464}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A552BA02-AA83-2147-8F36-0A3F1A080549}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="2" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="目标" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
   <si>
     <t>基于区块链的安全数据共享系统工作计划概况</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -635,6 +635,14 @@
   </si>
   <si>
     <t>曹俊燚待定</t>
+  </si>
+  <si>
+    <t>2019.08.29 13：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.08.29 13:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -837,7 +845,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1156,13 +1164,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1190,15 +1211,195 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1207,240 +1408,63 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1797,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7888914A-0887-C84A-ABDA-E01C184CA597}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="57" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1813,17 +1837,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" customHeight="1" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -1855,82 +1879,82 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="41" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="69" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="41" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="40"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="41" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="40"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="70"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" thickBot="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="41"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:9" ht="17" thickBot="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="51">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1939,56 +1963,56 @@
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="72" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="45" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="68">
-      <c r="A9" s="16"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:9" ht="17">
-      <c r="A10" s="16"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="C10" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="7" t="s">
         <v>85</v>
       </c>
@@ -1997,19 +2021,19 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="17">
-      <c r="A11" s="16"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="7" t="s">
         <v>86</v>
       </c>
@@ -2018,38 +2042,38 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:9" ht="136">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="50" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="50" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="46" t="s">
         <v>91</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -2060,17 +2084,17 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="17" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="7" t="s">
         <v>87</v>
       </c>
@@ -2079,15 +2103,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="34">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="7" t="s">
         <v>88</v>
       </c>
@@ -2096,20 +2120,20 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="68">
-      <c r="A16" s="11"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="50" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -2117,53 +2141,53 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="11"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="102">
-      <c r="A18" s="11"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
       <c r="F18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17">
-      <c r="A19" s="11"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="7" t="s">
         <v>66</v>
       </c>
@@ -2172,19 +2196,19 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="34">
-      <c r="A20" s="11"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
       <c r="F20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="7" t="s">
         <v>25</v>
       </c>
@@ -2193,17 +2217,17 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
     </row>
     <row r="22" spans="1:9" ht="34">
       <c r="A22" s="7" t="s">
@@ -2215,19 +2239,19 @@
       <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="50" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="50" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="7" t="s">
@@ -2241,32 +2265,32 @@
       <c r="C23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
       <c r="F23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="50" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -2275,17 +2299,17 @@
       <c r="C25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="50" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11" t="s">
+      <c r="G25" s="50"/>
+      <c r="H25" s="50" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="7" t="s">
@@ -2293,65 +2317,65 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="16" customHeight="1">
-      <c r="A26" s="11"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11" t="s">
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="17" t="s">
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="46" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="17"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="17"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="50" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2360,59 +2384,60 @@
       <c r="C30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="50" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="11"/>
+      <c r="G30" s="50"/>
       <c r="H30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="50" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="11"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
       <c r="F31" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="11"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="11"/>
+      <c r="I31" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G13:G20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A20"/>
     <mergeCell ref="D13:D20"/>
     <mergeCell ref="E13:E20"/>
     <mergeCell ref="I30:I31"/>
@@ -2429,22 +2454,21 @@
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G13:G20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2453,22 +2477,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E050A6-F283-B644-B490-2BE7379117EF}">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:AR40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" style="10" customWidth="1"/>
     <col min="3" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17" thickBot="1">
+    <row r="1" spans="1:44" ht="17" thickBot="1">
       <c r="C1" t="s">
         <v>95</v>
       </c>
@@ -2487,7 +2511,7 @@
       <c r="H1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="11" t="s">
         <v>101</v>
       </c>
       <c r="J1" t="s">
@@ -2508,7 +2532,7 @@
       <c r="O1" t="s">
         <v>100</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="11" t="s">
         <v>101</v>
       </c>
       <c r="Q1" t="s">
@@ -2527,494 +2551,532 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:44" ht="18" thickTop="1" thickBot="1">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="13">
         <v>43703</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="13">
         <v>43704</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="13">
         <v>43705</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="13">
         <v>43706</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="13">
         <v>43707</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="13">
         <v>43708</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2" s="14">
         <v>43709</v>
       </c>
-      <c r="J2" s="45">
+      <c r="J2" s="13">
         <v>43710</v>
       </c>
-      <c r="K2" s="45">
+      <c r="K2" s="13">
         <v>43711</v>
       </c>
-      <c r="L2" s="45">
+      <c r="L2" s="13">
         <v>43712</v>
       </c>
-      <c r="M2" s="45">
+      <c r="M2" s="13">
         <v>43713</v>
       </c>
-      <c r="N2" s="45">
+      <c r="N2" s="13">
         <v>43714</v>
       </c>
-      <c r="O2" s="45">
+      <c r="O2" s="13">
         <v>43715</v>
       </c>
-      <c r="P2" s="46">
+      <c r="P2" s="14">
         <v>43716</v>
       </c>
-      <c r="Q2" s="45">
+      <c r="Q2" s="13">
         <v>43717</v>
       </c>
-      <c r="R2" s="45">
+      <c r="R2" s="13">
         <v>43718</v>
       </c>
-      <c r="S2" s="45">
+      <c r="S2" s="13">
         <v>43719</v>
       </c>
-      <c r="T2" s="45">
+      <c r="T2" s="13">
         <v>43720</v>
       </c>
-      <c r="U2" s="45">
+      <c r="U2" s="13">
         <v>43721</v>
       </c>
-      <c r="V2" s="45"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="47" t="s">
+      <c r="V2" s="13"/>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="I3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="V3" s="49"/>
+      <c r="C3" s="15"/>
+      <c r="I3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="V3" s="15"/>
       <c r="W3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="I4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="V4" s="52"/>
+    <row r="4" spans="1:44">
+      <c r="A4" s="81"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="16"/>
+      <c r="I4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="V4" s="16"/>
       <c r="W4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="53"/>
-      <c r="I5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="V5" s="53"/>
+    <row r="5" spans="1:44">
+      <c r="A5" s="81"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="17"/>
+      <c r="I5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="V5" s="17"/>
       <c r="W5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="54"/>
-      <c r="I6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="V6" s="54"/>
+    <row r="6" spans="1:44">
+      <c r="A6" s="81"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="18"/>
+      <c r="I6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="V6" s="18"/>
       <c r="W6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="17" thickBot="1">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="I7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="V7" s="57"/>
+    <row r="7" spans="1:44" ht="17" thickBot="1">
+      <c r="A7" s="82"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="19"/>
+      <c r="I7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="V7" s="19"/>
       <c r="W7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="60" customFormat="1" ht="17" thickBot="1">
-      <c r="A8" s="58" t="s">
+    <row r="8" spans="1:44" s="22" customFormat="1" ht="17" thickBot="1">
+      <c r="A8" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="I8" s="61"/>
-      <c r="P8" s="61"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="62" t="s">
+      <c r="B8" s="21"/>
+      <c r="I8" s="23"/>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="I9" s="43"/>
-      <c r="P9" s="43"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="I10" s="43"/>
-      <c r="P10" s="43"/>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="I11" s="43"/>
-      <c r="P11" s="43"/>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="I9" s="11"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" s="78"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="I10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" s="78"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="I11" s="11"/>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" s="78"/>
+      <c r="B12" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="I12" s="43"/>
-      <c r="P12" s="43"/>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="I13" s="43"/>
-      <c r="P13" s="43"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="I14" s="43"/>
-      <c r="P14" s="43"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="64"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="I15" s="43"/>
-      <c r="P15" s="43"/>
-    </row>
-    <row r="16" spans="1:23" s="68" customFormat="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="I12" s="11"/>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13" s="78"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="I13" s="11"/>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14" s="78"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="I14" s="11"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" s="78"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="I15" s="11"/>
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" spans="1:44" s="24" customFormat="1">
+      <c r="A16" s="86"/>
+      <c r="B16" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" s="15"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+    </row>
+    <row r="17" spans="1:17" s="27" customFormat="1" ht="17" thickBot="1">
+      <c r="A17" s="87"/>
+      <c r="B17" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="P17" s="28"/>
+    </row>
+    <row r="18" spans="1:17" s="22" customFormat="1" ht="17" thickBot="1">
+      <c r="A18" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="I19" s="11"/>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="78"/>
+      <c r="B20" s="89"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="I20" s="11"/>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="78"/>
+      <c r="B21" s="89"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="I21" s="11"/>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="78"/>
+      <c r="B22" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="I22" s="11"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="78"/>
+      <c r="B23" s="90"/>
+      <c r="F23" s="17"/>
+      <c r="I23" s="11"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="78"/>
+      <c r="B24" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="78"/>
+      <c r="B25" s="90"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="78"/>
+      <c r="B26" s="90"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="78"/>
+      <c r="B27" s="90"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="78"/>
+      <c r="B28" s="90"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:17" s="24" customFormat="1" ht="17">
+      <c r="A29" s="86"/>
+      <c r="B29" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="I16" s="69"/>
-      <c r="P16" s="69"/>
-    </row>
-    <row r="17" spans="1:17" s="72" customFormat="1" ht="17" thickBot="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="73"/>
-      <c r="P17" s="73"/>
-    </row>
-    <row r="18" spans="1:17" s="60" customFormat="1" ht="17" thickBot="1">
-      <c r="A18" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="74"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="I19" s="43"/>
-      <c r="P19" s="43"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="I20" s="43"/>
-      <c r="P20" s="43"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="64"/>
-      <c r="B21" s="65"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="I21" s="43"/>
-      <c r="P21" s="43"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="64"/>
-      <c r="B22" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="54"/>
-      <c r="I22" s="43"/>
-      <c r="P22" s="43"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="64"/>
-      <c r="B23" s="75"/>
-      <c r="F23" s="53"/>
-      <c r="I23" s="43"/>
-      <c r="P23" s="43"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="64"/>
-      <c r="B24" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="P24" s="43"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="64"/>
-      <c r="B25" s="75"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="P25" s="43"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="64"/>
-      <c r="B26" s="75"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="P26" s="43"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="64"/>
-      <c r="B27" s="75"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="P27" s="43"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="64"/>
-      <c r="B28" s="75"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="P28" s="43"/>
-    </row>
-    <row r="29" spans="1:17" s="68" customFormat="1" ht="17">
-      <c r="A29" s="66"/>
-      <c r="B29" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="69"/>
-      <c r="P29" s="69"/>
+      <c r="I29" s="25"/>
+      <c r="P29" s="25"/>
     </row>
     <row r="30" spans="1:17" ht="17" thickBot="1">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83" t="s">
+      <c r="A30" s="77"/>
+      <c r="B30" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="79"/>
-      <c r="P30" s="43"/>
-    </row>
-    <row r="31" spans="1:17" s="60" customFormat="1" ht="17" thickBot="1">
-      <c r="A31" s="58" t="s">
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="33"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:17" s="22" customFormat="1" ht="17" thickBot="1">
+      <c r="A31" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="84"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
+      <c r="B31" s="37"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="52"/>
-      <c r="P32" s="43"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="16"/>
+      <c r="P32" s="11"/>
     </row>
     <row r="33" spans="1:21" ht="17" thickBot="1">
-      <c r="A33" s="82"/>
-      <c r="B33" s="83" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="43"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="43"/>
-    </row>
-    <row r="34" spans="1:21" s="60" customFormat="1" ht="17" thickBot="1">
-      <c r="A34" s="58" t="s">
+      <c r="I33" s="11"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="1:21" s="22" customFormat="1" ht="17" thickBot="1">
+      <c r="A34" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
+      <c r="B34" s="37"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="I35" s="43"/>
-      <c r="P35" s="86"/>
+      <c r="I35" s="11"/>
+      <c r="P35" s="39"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="64"/>
-      <c r="B36" s="87" t="s">
+      <c r="A36" s="78"/>
+      <c r="B36" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="43"/>
-      <c r="P36" s="77"/>
+      <c r="I36" s="11"/>
+      <c r="P36" s="31"/>
     </row>
     <row r="37" spans="1:21" ht="17" thickBot="1">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83" t="s">
+      <c r="A37" s="77"/>
+      <c r="B37" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="I37" s="43"/>
-      <c r="P37" s="77"/>
-    </row>
-    <row r="38" spans="1:21" s="60" customFormat="1" ht="17" thickBot="1">
-      <c r="A38" s="58" t="s">
+      <c r="I37" s="11"/>
+      <c r="P37" s="31"/>
+    </row>
+    <row r="38" spans="1:21" s="22" customFormat="1" ht="17" thickBot="1">
+      <c r="A38" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="84"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
+      <c r="B38" s="37"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="I39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="88"/>
-      <c r="U39" s="88"/>
-    </row>
-    <row r="40" spans="1:21" s="91" customFormat="1" ht="17" thickBot="1">
-      <c r="A40" s="89"/>
-      <c r="B40" s="90" t="s">
+      <c r="I39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+    </row>
+    <row r="40" spans="1:21" s="43" customFormat="1" ht="17" thickBot="1">
+      <c r="A40" s="79"/>
+      <c r="B40" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="92"/>
-      <c r="P40" s="92"/>
+      <c r="I40" s="44"/>
+      <c r="P40" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="12">
